--- a/data/trans_orig/IQ23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{311BB1CD-53FB-487C-BB8F-107FA4B1E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA72349D-388E-46ED-A5CE-D17843991833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7653F386-0AC7-4C93-808A-335878EAA901}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB12B1A6-5767-4969-950C-EAA66A5CBC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="300">
   <si>
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>65,5%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>72,95%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>34,5%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>75,96%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,109 +218,109 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>26,36%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -332,625 +332,613 @@
     <t>68,46%</t>
   </si>
   <si>
-    <t>58,64%</t>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
     <t>68,79%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
+    <t>39,0%</t>
   </si>
   <si>
     <t>31,21%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDC48BE-9FEA-4F3D-BDAC-5FF4D4777018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A12EAF4-3255-4E27-B8A4-667E9075F5A7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2263,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CF7068-FAE4-4C31-9E14-410621259794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FCD547-7C85-4588-A8D4-87A005AC5B30}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,7 +2536,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>63825</v>
+        <v>63826</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>99</v>
@@ -2650,7 +2638,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -3164,7 +3152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00169414-991E-49DC-94C9-FE9AD0223056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7BB42D-37FC-415A-8122-30B403C9ECB3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3461,7 +3449,7 @@
         <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3497,7 @@
         <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>184</v>
@@ -3601,7 +3589,7 @@
         <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>957</v>
@@ -3610,13 +3598,13 @@
         <v>658880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3619,13 @@
         <v>157662</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>213</v>
@@ -3646,13 +3634,13 @@
         <v>137475</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>441</v>
@@ -3661,13 +3649,13 @@
         <v>295137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3723,13 @@
         <v>124842</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -3750,13 +3738,13 @@
         <v>105495</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>335</v>
@@ -3765,13 +3753,13 @@
         <v>230337</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3774,13 @@
         <v>61477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -3801,13 +3789,13 @@
         <v>64436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>187</v>
@@ -3816,13 +3804,13 @@
         <v>125913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3878,13 @@
         <v>494276</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>716</v>
@@ -3905,13 +3893,13 @@
         <v>480594</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>1418</v>
@@ -3920,13 +3908,13 @@
         <v>974870</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3929,13 @@
         <v>243966</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -3956,13 +3944,13 @@
         <v>218659</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>689</v>
@@ -3971,13 +3959,13 @@
         <v>462625</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0749E5D0-B503-4CB0-8542-30117050394A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC585193-4B75-4AC4-828B-47C6F3405123}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4326,13 +4314,13 @@
         <v>37300</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4341,13 +4329,13 @@
         <v>32218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -4356,13 +4344,13 @@
         <v>69518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4365,13 @@
         <v>21457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4392,13 +4380,13 @@
         <v>17617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -4407,13 +4395,13 @@
         <v>39074</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4469,13 @@
         <v>337792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>426</v>
@@ -4496,13 +4484,13 @@
         <v>315569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>854</v>
@@ -4511,13 +4499,13 @@
         <v>653361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4520,13 @@
         <v>152782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>213</v>
@@ -4547,13 +4535,13 @@
         <v>131253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>439</v>
@@ -4562,13 +4550,13 @@
         <v>284034</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4624,13 @@
         <v>131894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>162</v>
@@ -4651,13 +4639,13 @@
         <v>109891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>333</v>
@@ -4666,13 +4654,13 @@
         <v>241785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4675,13 @@
         <v>42689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -4702,13 +4690,13 @@
         <v>39619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>133</v>
@@ -4717,13 +4705,13 @@
         <v>82308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4779,13 @@
         <v>506986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
@@ -4806,13 +4794,13 @@
         <v>457678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>1282</v>
@@ -4821,13 +4809,13 @@
         <v>964664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4830,13 @@
         <v>216927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>304</v>
@@ -4857,13 +4845,13 @@
         <v>189660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>627</v>
@@ -4872,13 +4860,13 @@
         <v>406587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IQ23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA72349D-388E-46ED-A5CE-D17843991833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF0B8AB-8455-4313-A3F4-26153A367242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB12B1A6-5767-4969-950C-EAA66A5CBC6E}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{63853742-151B-4E16-A2C8-31E2BAEC2BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,877 +68,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
     <t>75,85%</t>
   </si>
   <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>78,21%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>19,47%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A12EAF4-3255-4E27-B8A4-667E9075F5A7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8C5980-AC55-4857-87A4-4E71F5607E45}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1468,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>65400</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1483,81 +1468,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="7">
+        <v>55996</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>121395</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>24246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="I5" s="7">
+        <v>29491</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>53738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,151 +1555,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>89646</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="I6" s="7">
+        <v>85487</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>175133</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>451</v>
       </c>
       <c r="D7" s="7">
-        <v>55996</v>
+        <v>301024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="I7" s="7">
-        <v>65400</v>
+        <v>361778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>180</v>
+        <v>996</v>
       </c>
       <c r="N7" s="7">
-        <v>121395</v>
+        <v>662802</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>173</v>
+      </c>
+      <c r="D8" s="7">
+        <v>112083</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>173</v>
+      </c>
+      <c r="I8" s="7">
+        <v>114527</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7">
-        <v>29491</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7">
-        <v>38</v>
-      </c>
-      <c r="I8" s="7">
-        <v>24246</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="N8" s="7">
-        <v>53738</v>
+        <v>226610</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,153 +1710,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>128</v>
+        <v>624</v>
       </c>
       <c r="D9" s="7">
-        <v>85487</v>
+        <v>413107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>718</v>
       </c>
       <c r="I9" s="7">
-        <v>89646</v>
+        <v>476305</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>262</v>
+        <v>1342</v>
       </c>
       <c r="N9" s="7">
-        <v>175133</v>
+        <v>889412</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>545</v>
+        <v>190</v>
       </c>
       <c r="D10" s="7">
-        <v>361778</v>
+        <v>130748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>451</v>
+        <v>169</v>
       </c>
       <c r="I10" s="7">
-        <v>301024</v>
+        <v>114594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>996</v>
+        <v>359</v>
       </c>
       <c r="N10" s="7">
-        <v>662802</v>
+        <v>245342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>114527</v>
+        <v>41640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>112083</v>
+        <v>42366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>226610</v>
+        <v>84006</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,153 +1865,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>718</v>
+        <v>251</v>
       </c>
       <c r="D12" s="7">
-        <v>476305</v>
+        <v>172388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>624</v>
+        <v>234</v>
       </c>
       <c r="I12" s="7">
-        <v>413107</v>
+        <v>156960</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1342</v>
+        <v>485</v>
       </c>
       <c r="N12" s="7">
-        <v>889412</v>
+        <v>329348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>737</v>
       </c>
       <c r="D13" s="7">
-        <v>114594</v>
+        <v>497172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>798</v>
       </c>
       <c r="I13" s="7">
-        <v>130748</v>
+        <v>532367</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>359</v>
+        <v>1535</v>
       </c>
       <c r="N13" s="7">
-        <v>245342</v>
+        <v>1029539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="D14" s="7">
-        <v>42366</v>
+        <v>177969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="I14" s="7">
-        <v>41640</v>
+        <v>186385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>554</v>
       </c>
       <c r="N14" s="7">
-        <v>84006</v>
+        <v>364354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,216 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>234</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="7">
-        <v>156960</v>
+        <v>675141</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>251</v>
+        <v>1080</v>
       </c>
       <c r="I15" s="7">
-        <v>172388</v>
+        <v>718752</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>485</v>
+        <v>2089</v>
       </c>
       <c r="N15" s="7">
-        <v>329348</v>
+        <v>1393893</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>798</v>
-      </c>
-      <c r="D16" s="7">
-        <v>532368</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>737</v>
-      </c>
-      <c r="I16" s="7">
-        <v>497172</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1029540</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>283</v>
-      </c>
-      <c r="D17" s="7">
-        <v>187111</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>272</v>
-      </c>
-      <c r="I17" s="7">
-        <v>177969</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>555</v>
-      </c>
-      <c r="N17" s="7">
-        <v>365080</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D18" s="7">
-        <v>719479</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1009</v>
-      </c>
-      <c r="I18" s="7">
-        <v>675141</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2090</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1394620</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2251,8 +2086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FCD547-7C85-4588-A8D4-87A005AC5B30}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65625EA-86B9-4E1A-8878-1277D1F22041}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2268,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2369,96 +2204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>63826</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="7">
+        <v>59010</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>122836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>28543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="I5" s="7">
+        <v>27182</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>55725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,151 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>466</v>
       </c>
       <c r="D7" s="7">
-        <v>59010</v>
+        <v>324323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>91</v>
+        <v>510</v>
       </c>
       <c r="I7" s="7">
-        <v>63826</v>
+        <v>357298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>175</v>
+        <v>976</v>
       </c>
       <c r="N7" s="7">
-        <v>122836</v>
+        <v>681620</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>27182</v>
+        <v>127212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="I8" s="7">
-        <v>28543</v>
+        <v>137148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>55725</v>
+        <v>264360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>451535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>494446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1362</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>945980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>510</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7">
-        <v>357298</v>
+        <v>122802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>324323</v>
+        <v>121006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>976</v>
+        <v>345</v>
       </c>
       <c r="N10" s="7">
-        <v>681620</v>
+        <v>243808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>137148</v>
+        <v>43224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>127212</v>
+        <v>49886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="N11" s="7">
-        <v>264360</v>
+        <v>93110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,153 +2616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>708</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>494446</v>
+        <v>166026</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>654</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>451535</v>
+        <v>170892</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1362</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>945980</v>
+        <v>336918</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>171</v>
+        <v>731</v>
       </c>
       <c r="D13" s="7">
-        <v>121006</v>
+        <v>510951</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>174</v>
+        <v>765</v>
       </c>
       <c r="I13" s="7">
-        <v>122802</v>
+        <v>537314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>345</v>
+        <v>1496</v>
       </c>
       <c r="N13" s="7">
-        <v>243808</v>
+        <v>1048265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="D14" s="7">
-        <v>49886</v>
+        <v>198978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>43224</v>
+        <v>214216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>132</v>
+        <v>598</v>
       </c>
       <c r="N14" s="7">
-        <v>93110</v>
+        <v>413194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,216 +2771,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>242</v>
+        <v>1023</v>
       </c>
       <c r="D15" s="7">
-        <v>170892</v>
+        <v>709929</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1071</v>
       </c>
       <c r="I15" s="7">
-        <v>166026</v>
+        <v>751530</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2094</v>
       </c>
       <c r="N15" s="7">
-        <v>336918</v>
+        <v>1461459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>766</v>
-      </c>
-      <c r="D16" s="7">
-        <v>537955</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>731</v>
-      </c>
-      <c r="I16" s="7">
-        <v>510951</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1497</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1048906</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>306</v>
-      </c>
-      <c r="D17" s="7">
-        <v>214216</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>292</v>
-      </c>
-      <c r="I17" s="7">
-        <v>198978</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>598</v>
-      </c>
-      <c r="N17" s="7">
-        <v>413194</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1072</v>
-      </c>
-      <c r="D18" s="7">
-        <v>752171</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>709929</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1462100</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3152,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7BB42D-37FC-415A-8122-30B403C9ECB3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6ABB3C-B64E-4AD8-97B6-908BEC6D03E6}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3169,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3270,88 +2955,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D4" s="7">
+        <v>42630</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43023</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="N4" s="7">
+        <v>85653</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16748</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>24827</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="N5" s="7">
+        <v>41575</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,147 +3057,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67850</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127228</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>497</v>
       </c>
       <c r="D7" s="7">
-        <v>43023</v>
+        <v>332469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="I7" s="7">
-        <v>42630</v>
+        <v>326411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>957</v>
       </c>
       <c r="N7" s="7">
-        <v>85653</v>
+        <v>658880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>24827</v>
+        <v>137475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="I8" s="7">
-        <v>16748</v>
+        <v>157662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>441</v>
       </c>
       <c r="N8" s="7">
-        <v>41575</v>
+        <v>295137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,153 +3212,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>98</v>
+        <v>710</v>
       </c>
       <c r="D9" s="7">
-        <v>67850</v>
+        <v>469944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>688</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>484073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>187</v>
+        <v>1398</v>
       </c>
       <c r="N9" s="7">
-        <v>127228</v>
+        <v>954017</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="D10" s="7">
-        <v>326411</v>
+        <v>105495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>497</v>
+        <v>180</v>
       </c>
       <c r="I10" s="7">
-        <v>332469</v>
+        <v>124842</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>957</v>
+        <v>335</v>
       </c>
       <c r="N10" s="7">
-        <v>658880</v>
+        <v>230337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>157662</v>
+        <v>64436</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>137475</v>
+        <v>61477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>441</v>
+        <v>187</v>
       </c>
       <c r="N11" s="7">
-        <v>295137</v>
+        <v>125913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,153 +3367,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>688</v>
+        <v>253</v>
       </c>
       <c r="D12" s="7">
-        <v>484073</v>
+        <v>169931</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>710</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>469944</v>
+        <v>186319</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1398</v>
+        <v>522</v>
       </c>
       <c r="N12" s="7">
-        <v>954017</v>
+        <v>356250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>716</v>
       </c>
       <c r="D13" s="7">
-        <v>124842</v>
+        <v>480594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
-        <v>155</v>
+        <v>702</v>
       </c>
       <c r="I13" s="7">
-        <v>105495</v>
+        <v>494276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>335</v>
+        <v>1418</v>
       </c>
       <c r="N13" s="7">
-        <v>230337</v>
+        <v>974870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7">
-        <v>61477</v>
+        <v>218659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>64436</v>
+        <v>243966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>187</v>
+        <v>689</v>
       </c>
       <c r="N14" s="7">
-        <v>125913</v>
+        <v>462625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,216 +3522,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>269</v>
+        <v>1052</v>
       </c>
       <c r="D15" s="7">
-        <v>186319</v>
+        <v>699253</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>253</v>
+        <v>1055</v>
       </c>
       <c r="I15" s="7">
-        <v>169931</v>
+        <v>738242</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>522</v>
+        <v>2107</v>
       </c>
       <c r="N15" s="7">
-        <v>356250</v>
+        <v>1437495</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>702</v>
-      </c>
-      <c r="D16" s="7">
-        <v>494276</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>716</v>
-      </c>
-      <c r="I16" s="7">
-        <v>480594</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1418</v>
-      </c>
-      <c r="N16" s="7">
-        <v>974870</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>353</v>
-      </c>
-      <c r="D17" s="7">
-        <v>243966</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="7">
-        <v>336</v>
-      </c>
-      <c r="I17" s="7">
-        <v>218659</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="7">
-        <v>689</v>
-      </c>
-      <c r="N17" s="7">
-        <v>462625</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1055</v>
-      </c>
-      <c r="D18" s="7">
-        <v>738242</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I18" s="7">
-        <v>699253</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2107</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1437495</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4041,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC585193-4B75-4AC4-828B-47C6F3405123}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029342F7-78A2-4562-A715-6EAE3ED80300}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4058,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4159,96 +3706,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D4" s="7">
+        <v>34836</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>39236</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>74072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18466</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>22768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>41234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,151 +3808,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53302</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>115306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>426</v>
       </c>
       <c r="D7" s="7">
-        <v>37300</v>
+        <v>326499</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="I7" s="7">
-        <v>32218</v>
+        <v>352960</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>854</v>
       </c>
       <c r="N7" s="7">
-        <v>69518</v>
+        <v>679459</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>21457</v>
+        <v>130695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>17617</v>
+        <v>161662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>439</v>
       </c>
       <c r="N8" s="7">
-        <v>39074</v>
+        <v>292358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>639</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>457194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>66</v>
+        <v>654</v>
       </c>
       <c r="I9" s="7">
-        <v>49835</v>
+        <v>514622</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>1293</v>
       </c>
       <c r="N9" s="7">
-        <v>108592</v>
+        <v>971817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>428</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7">
-        <v>337792</v>
+        <v>108151</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>426</v>
+        <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>315569</v>
+        <v>138177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>854</v>
+        <v>333</v>
       </c>
       <c r="N10" s="7">
-        <v>653361</v>
+        <v>246327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>152782</v>
+        <v>39594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>131253</v>
+        <v>45172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="N11" s="7">
-        <v>284034</v>
+        <v>84767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,153 +4118,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>654</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>490574</v>
+        <v>147745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>639</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>446822</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1293</v>
+        <v>466</v>
       </c>
       <c r="N12" s="7">
-        <v>937395</v>
+        <v>331094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>171</v>
+        <v>630</v>
       </c>
       <c r="D13" s="7">
-        <v>131894</v>
+        <v>469486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>162</v>
+        <v>652</v>
       </c>
       <c r="I13" s="7">
-        <v>109891</v>
+        <v>530373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>333</v>
+        <v>1282</v>
       </c>
       <c r="N13" s="7">
-        <v>241785</v>
+        <v>999859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="D14" s="7">
-        <v>42689</v>
+        <v>188756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="I14" s="7">
-        <v>39619</v>
+        <v>229602</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>133</v>
+        <v>626</v>
       </c>
       <c r="N14" s="7">
-        <v>82308</v>
+        <v>418358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,216 +4273,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>933</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>658242</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>975</v>
       </c>
       <c r="I15" s="7">
-        <v>149510</v>
+        <v>759975</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>466</v>
+        <v>1908</v>
       </c>
       <c r="N15" s="7">
-        <v>324093</v>
+        <v>1418217</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>652</v>
-      </c>
-      <c r="D16" s="7">
-        <v>506986</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>630</v>
-      </c>
-      <c r="I16" s="7">
-        <v>457678</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N16" s="7">
-        <v>964664</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>323</v>
-      </c>
-      <c r="D17" s="7">
-        <v>216927</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="7">
-        <v>304</v>
-      </c>
-      <c r="I17" s="7">
-        <v>189660</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M17" s="7">
-        <v>627</v>
-      </c>
-      <c r="N17" s="7">
-        <v>406587</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>975</v>
-      </c>
-      <c r="D18" s="7">
-        <v>723913</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>934</v>
-      </c>
-      <c r="I18" s="7">
-        <v>647338</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1909</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1371251</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
